--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1464407.979847641</v>
+        <v>1461712.514379769</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12436699.94224556</v>
+        <v>12436666.27081003</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767344</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10585931.33340111</v>
+        <v>10586768.79538925</v>
       </c>
     </row>
     <row r="11">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>13.1134241603919</v>
       </c>
       <c r="H2" t="n">
-        <v>72.63544656439282</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>172.4569668713117</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>170.0208220735344</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,7 +829,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>165.68519526211</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>175.2848202956665</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>329.7264717927113</v>
       </c>
       <c r="G5" t="n">
-        <v>333.433680135971</v>
+        <v>12.4197190687577</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.38935721520038</v>
+        <v>99.32832091644316</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>99.74603652456159</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.34583147339764</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.3160423925932</v>
+        <v>36.28687735603329</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0466996907027</v>
+        <v>143.0309654321255</v>
       </c>
       <c r="T6" t="n">
-        <v>193.950580588878</v>
+        <v>193.9471662361903</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8399542011172</v>
+        <v>225.839898471748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9432680061307</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>26.76058964191731</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.978535422477719</v>
+        <v>1.928326488847972</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.177322371449</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>22.04688224887776</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4230353577824</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2485286662292</v>
+        <v>286.2484899297496</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>57.74751945339603</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>65.51651974577719</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.50612826256146</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>120.3332554667399</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>410.3498598144164</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>282.5262723903724</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238032</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114104</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.949422691779</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>121.0673862305048</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7362075312412</v>
+        <v>134.6934939670195</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458126</v>
+        <v>86.64179915749273</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035252</v>
+        <v>8.282546271489863</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>122.4601525254633</v>
       </c>
       <c r="T12" t="n">
-        <v>189.655441187015</v>
+        <v>189.4832755487706</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7698485525558</v>
+        <v>225.7670384496465</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>124.1004521009508</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.7692889308208</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.4743248871677</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146341</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>218.4529121465557</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>286.1978462422561</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>166.6859018577783</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>34.32106446353055</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001832</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.23508833617412</v>
+        <v>13.15544868145242</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1819,7 +1819,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695426</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>200.6173698503559</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1935,10 +1935,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8253826161910711</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>89.97676987683025</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634797</v>
+        <v>332.4423155261895</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2172,10 +2172,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>162.8432779070463</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>3.006892987833667</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>9.146142788179031</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>41.74133133758817</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>42.71572132711254</v>
+        <v>54.26758323426781</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,10 +2725,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710083</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>12.35680705404068</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>36.22494343870208</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,10 +3193,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>41.55695577161469</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3235,16 +3235,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>218.0507329335202</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176126</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>14.19454216862693</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428152</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,13 +3712,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>176.76214411214</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881277</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>83.06560892428165</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428118</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605715718</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634.167062227511</v>
+        <v>41.28849413961882</v>
       </c>
       <c r="C2" t="n">
-        <v>634.167062227511</v>
+        <v>41.28849413961882</v>
       </c>
       <c r="D2" t="n">
-        <v>634.167062227511</v>
+        <v>41.28849413961882</v>
       </c>
       <c r="E2" t="n">
-        <v>367.789405660333</v>
+        <v>41.28849413961882</v>
       </c>
       <c r="F2" t="n">
-        <v>360.8439049111296</v>
+        <v>34.34299339041534</v>
       </c>
       <c r="G2" t="n">
-        <v>94.46624834395163</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991316</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946889</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946889</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="V2" t="n">
-        <v>634.167062227511</v>
+        <v>574.0438072739748</v>
       </c>
       <c r="W2" t="n">
-        <v>634.167062227511</v>
+        <v>307.6661507067968</v>
       </c>
       <c r="X2" t="n">
-        <v>634.167062227511</v>
+        <v>41.28849413961882</v>
       </c>
       <c r="Y2" t="n">
-        <v>634.167062227511</v>
+        <v>41.28849413961882</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>713.684381380986</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="C3" t="n">
-        <v>713.684381380986</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="D3" t="n">
-        <v>564.7499717197347</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="E3" t="n">
-        <v>405.5125167142792</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>258.9779587411641</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>713.684381380986</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>713.684381380986</v>
+        <v>801.3675279810723</v>
       </c>
       <c r="W3" t="n">
-        <v>713.684381380986</v>
+        <v>547.1301712528707</v>
       </c>
       <c r="X3" t="n">
-        <v>713.684381380986</v>
+        <v>375.3919671381894</v>
       </c>
       <c r="Y3" t="n">
-        <v>713.684381380986</v>
+        <v>167.6316683732355</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.4833781076887</v>
+        <v>649.8105950719806</v>
       </c>
       <c r="C4" t="n">
-        <v>498.4833781076887</v>
+        <v>649.8105950719806</v>
       </c>
       <c r="D4" t="n">
-        <v>498.4833781076887</v>
+        <v>499.6939556596449</v>
       </c>
       <c r="E4" t="n">
-        <v>350.5702845252956</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="F4" t="n">
-        <v>203.6803370273853</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>719.2759572512189</v>
+        <v>877.800145969998</v>
       </c>
       <c r="X4" t="n">
-        <v>719.2759572512189</v>
+        <v>649.8105950719806</v>
       </c>
       <c r="Y4" t="n">
-        <v>498.4833781076887</v>
+        <v>649.8105950719806</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>474.7820755001064</v>
+        <v>476.6120370389946</v>
       </c>
       <c r="C5" t="n">
-        <v>474.7820755001064</v>
+        <v>476.6120370389946</v>
       </c>
       <c r="D5" t="n">
-        <v>474.7820755001064</v>
+        <v>476.6120370389946</v>
       </c>
       <c r="E5" t="n">
-        <v>474.7820755001064</v>
+        <v>476.6120370389946</v>
       </c>
       <c r="F5" t="n">
-        <v>467.8365747509029</v>
+        <v>143.5549948241346</v>
       </c>
       <c r="G5" t="n">
-        <v>131.0348776438614</v>
+        <v>131.0098240476117</v>
       </c>
       <c r="H5" t="n">
-        <v>131.0348776438614</v>
+        <v>131.0098240476117</v>
       </c>
       <c r="I5" t="n">
-        <v>30.64158752749742</v>
+        <v>30.67818675827519</v>
       </c>
       <c r="J5" t="n">
-        <v>93.51877468281486</v>
+        <v>93.68840227144278</v>
       </c>
       <c r="K5" t="n">
-        <v>238.4938972452996</v>
+        <v>238.8628998583008</v>
       </c>
       <c r="L5" t="n">
-        <v>455.2501182192577</v>
+        <v>455.86646317994</v>
       </c>
       <c r="M5" t="n">
-        <v>728.1026159494263</v>
+        <v>728.9941769296719</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.983960730206</v>
+        <v>1011.155191012941</v>
       </c>
       <c r="O5" t="n">
-        <v>1262.821260145374</v>
+        <v>1264.256574219962</v>
       </c>
       <c r="P5" t="n">
-        <v>1444.111044739605</v>
+        <v>1445.771748220744</v>
       </c>
       <c r="Q5" t="n">
-        <v>1532.079376374871</v>
+        <v>1533.909337913759</v>
       </c>
       <c r="R5" t="n">
-        <v>1532.079376374871</v>
+        <v>1533.909337913759</v>
       </c>
       <c r="S5" t="n">
-        <v>1532.079376374871</v>
+        <v>1533.909337913759</v>
       </c>
       <c r="T5" t="n">
-        <v>1532.079376374871</v>
+        <v>1533.909337913759</v>
       </c>
       <c r="U5" t="n">
-        <v>1532.079376374871</v>
+        <v>1533.909337913759</v>
       </c>
       <c r="V5" t="n">
-        <v>1201.0164890313</v>
+        <v>1202.846450570189</v>
       </c>
       <c r="W5" t="n">
-        <v>848.2478337611863</v>
+        <v>850.0777953000745</v>
       </c>
       <c r="X5" t="n">
-        <v>474.7820755001064</v>
+        <v>476.6120370389946</v>
       </c>
       <c r="Y5" t="n">
-        <v>474.7820755001064</v>
+        <v>476.6120370389946</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>266.4071535785605</v>
+        <v>67.33159822901588</v>
       </c>
       <c r="C6" t="n">
-        <v>266.4071535785605</v>
+        <v>67.33159822901588</v>
       </c>
       <c r="D6" t="n">
-        <v>266.4071535785605</v>
+        <v>67.33159822901588</v>
       </c>
       <c r="E6" t="n">
-        <v>266.4071535785605</v>
+        <v>67.33159822901588</v>
       </c>
       <c r="F6" t="n">
-        <v>266.4071535785605</v>
+        <v>67.33159822901588</v>
       </c>
       <c r="G6" t="n">
-        <v>165.6535813315286</v>
+        <v>67.33159822901588</v>
       </c>
       <c r="H6" t="n">
-        <v>67.32445863112692</v>
+        <v>67.33159822901588</v>
       </c>
       <c r="I6" t="n">
-        <v>30.64158752749742</v>
+        <v>30.67818675827519</v>
       </c>
       <c r="J6" t="n">
-        <v>49.2729624883569</v>
+        <v>70.50414779342775</v>
       </c>
       <c r="K6" t="n">
-        <v>159.2717745831326</v>
+        <v>180.638377908524</v>
       </c>
       <c r="L6" t="n">
-        <v>424.8763609185685</v>
+        <v>375.0499828615933</v>
       </c>
       <c r="M6" t="n">
-        <v>670.8899162145063</v>
+        <v>621.2760242110911</v>
       </c>
       <c r="N6" t="n">
-        <v>937.8233631986944</v>
+        <v>888.4275811224048</v>
       </c>
       <c r="O6" t="n">
-        <v>1317.013008851475</v>
+        <v>1110.599268204493</v>
       </c>
       <c r="P6" t="n">
-        <v>1475.832169705202</v>
+        <v>1269.578567846517</v>
       </c>
       <c r="Q6" t="n">
-        <v>1532.079376374871</v>
+        <v>1533.909337913759</v>
       </c>
       <c r="R6" t="n">
-        <v>1532.079376374871</v>
+        <v>1533.909337913759</v>
       </c>
       <c r="S6" t="n">
-        <v>1387.587760525676</v>
+        <v>1389.433615255047</v>
       </c>
       <c r="T6" t="n">
-        <v>1191.678083163173</v>
+        <v>1193.527386733642</v>
       </c>
       <c r="U6" t="n">
-        <v>963.5569173034588</v>
+        <v>965.4062771662201</v>
       </c>
       <c r="V6" t="n">
-        <v>728.404809071716</v>
+        <v>737.1807539277042</v>
       </c>
       <c r="W6" t="n">
-        <v>474.1674523435144</v>
+        <v>482.9433971995026</v>
       </c>
       <c r="X6" t="n">
-        <v>474.1674523435144</v>
+        <v>275.0918969939698</v>
       </c>
       <c r="Y6" t="n">
-        <v>266.4071535785605</v>
+        <v>67.33159822901588</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.64010815626279</v>
+        <v>206.5468374185747</v>
       </c>
       <c r="C7" t="n">
-        <v>32.64010815626279</v>
+        <v>206.5468374185747</v>
       </c>
       <c r="D7" t="n">
-        <v>32.64010815626279</v>
+        <v>179.5159387903754</v>
       </c>
       <c r="E7" t="n">
-        <v>32.64010815626279</v>
+        <v>179.5159387903754</v>
       </c>
       <c r="F7" t="n">
-        <v>32.64010815626279</v>
+        <v>32.62599129246506</v>
       </c>
       <c r="G7" t="n">
-        <v>32.64010815626279</v>
+        <v>32.62599129246506</v>
       </c>
       <c r="H7" t="n">
-        <v>32.64010815626279</v>
+        <v>32.62599129246506</v>
       </c>
       <c r="I7" t="n">
-        <v>32.64010815626279</v>
+        <v>32.62599129246506</v>
       </c>
       <c r="J7" t="n">
-        <v>30.64158752749742</v>
+        <v>30.67818675827519</v>
       </c>
       <c r="K7" t="n">
-        <v>157.259596174701</v>
+        <v>157.3778790199921</v>
       </c>
       <c r="L7" t="n">
-        <v>374.8134887914634</v>
+        <v>375.0362985406475</v>
       </c>
       <c r="M7" t="n">
-        <v>614.5826883437712</v>
+        <v>614.9157070573568</v>
       </c>
       <c r="N7" t="n">
-        <v>854.0853286630899</v>
+        <v>854.5259358182328</v>
       </c>
       <c r="O7" t="n">
-        <v>1059.288486109136</v>
+        <v>1059.828468603751</v>
       </c>
       <c r="P7" t="n">
-        <v>1211.354555016234</v>
+        <v>1211.979570281388</v>
       </c>
       <c r="Q7" t="n">
-        <v>1233.202138767129</v>
+        <v>1233.886026315012</v>
       </c>
       <c r="R7" t="n">
-        <v>1112.821005058594</v>
+        <v>1233.886026315012</v>
       </c>
       <c r="S7" t="n">
-        <v>1090.551427029425</v>
+        <v>1233.886026315012</v>
       </c>
       <c r="T7" t="n">
-        <v>865.8816943447964</v>
+        <v>1233.886026315012</v>
       </c>
       <c r="U7" t="n">
-        <v>576.7417663991102</v>
+        <v>944.7461374970828</v>
       </c>
       <c r="V7" t="n">
-        <v>322.0572781932234</v>
+        <v>944.7461374970828</v>
       </c>
       <c r="W7" t="n">
-        <v>32.64010815626279</v>
+        <v>655.3289674601222</v>
       </c>
       <c r="X7" t="n">
-        <v>32.64010815626279</v>
+        <v>427.3394165621048</v>
       </c>
       <c r="Y7" t="n">
-        <v>32.64010815626279</v>
+        <v>206.5468374185747</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>918.0161179218651</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="C8" t="n">
-        <v>918.0161179218651</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D8" t="n">
-        <v>918.0161179218651</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>532.2278653236208</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>121.2419605340132</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>109.5776142987062</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>109.5776142987062</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2496.161025626643</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2287.415384232468</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2287.415384232468</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>1956.352496888897</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182945</v>
+        <v>1603.583841618783</v>
       </c>
       <c r="X8" t="n">
-        <v>918.0161179218651</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="Y8" t="n">
-        <v>918.0161179218651</v>
+        <v>1230.118083357703</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429752</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>801.944955774447</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330612</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>172.7955294637</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>172.7955294637</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>172.7955294637</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>172.7955294637</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>172.7955294637</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4993,19 +4993,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>575.2365734374698</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959893</v>
+        <v>354.4439942939397</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2039.925018196099</v>
+        <v>1935.372603851775</v>
       </c>
       <c r="C11" t="n">
-        <v>1670.962501255688</v>
+        <v>1935.372603851775</v>
       </c>
       <c r="D11" t="n">
-        <v>1312.696802648937</v>
+        <v>1577.106905245024</v>
       </c>
       <c r="E11" t="n">
-        <v>926.9085500506931</v>
+        <v>1191.31865264678</v>
       </c>
       <c r="F11" t="n">
-        <v>515.9226452610856</v>
+        <v>780.3327478571723</v>
       </c>
       <c r="G11" t="n">
-        <v>101.3471995907325</v>
+        <v>365.8379399638224</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907325</v>
+        <v>80.45786684223408</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469182</v>
+        <v>80.45786684223408</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386824</v>
+        <v>317.3880320746725</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420328</v>
+        <v>723.2234501947055</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301226</v>
+        <v>1263.599934653017</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.48485887811</v>
+        <v>1896.542330458669</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765425</v>
+        <v>2544.340204328192</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687101</v>
+        <v>3142.702105990714</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856283</v>
+        <v>3618.889144608862</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882241</v>
+        <v>3928.313032718604</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234591</v>
+        <v>4022.893342111704</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.58813245566</v>
+        <v>4022.893342111704</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.78602197144</v>
+        <v>4022.893342111704</v>
       </c>
       <c r="U11" t="n">
-        <v>3622.78602197144</v>
+        <v>3769.409076766472</v>
       </c>
       <c r="V11" t="n">
-        <v>3291.72313462787</v>
+        <v>3438.346189422902</v>
       </c>
       <c r="W11" t="n">
-        <v>2938.954479357755</v>
+        <v>3085.577534152788</v>
       </c>
       <c r="X11" t="n">
-        <v>2816.664190236033</v>
+        <v>2712.111775891708</v>
       </c>
       <c r="Y11" t="n">
-        <v>2426.524858260221</v>
+        <v>2321.972443915896</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5530399535777</v>
+        <v>941.5545302742961</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1000106724507</v>
+        <v>767.1015009931691</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1656010111994</v>
+        <v>618.1670913319178</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9296363264624</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3935880326289</v>
+        <v>312.3950783533473</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2964087081428</v>
+        <v>176.3410440432266</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503046</v>
+        <v>88.82407519727435</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469182</v>
+        <v>80.45786684223408</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792128</v>
+        <v>80.45786684223408</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376501</v>
+        <v>80.45786684223408</v>
       </c>
       <c r="L12" t="n">
-        <v>480.11710868439</v>
+        <v>512.9272078082598</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282792</v>
+        <v>1036.955398626872</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279346</v>
+        <v>1589.261701277652</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>2072.294271209854</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2361.604567899688</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="R12" t="n">
-        <v>2558.889669173201</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.391145691522</v>
+        <v>2434.215892839358</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.819992977365</v>
+        <v>2242.818644810297</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.769640904077</v>
+        <v>2014.771131224795</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.617532672334</v>
+        <v>1779.619022993052</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.380175944132</v>
+        <v>1525.381666264851</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.5286757386</v>
+        <v>1317.530166059318</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.768376973646</v>
+        <v>1109.769867294364</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>203.8650582458543</v>
+        <v>857.7578223551229</v>
       </c>
       <c r="C13" t="n">
-        <v>203.8650582458542</v>
+        <v>688.821639427216</v>
       </c>
       <c r="D13" t="n">
-        <v>203.8650582458542</v>
+        <v>538.7050000148803</v>
       </c>
       <c r="E13" t="n">
-        <v>78.51106622469182</v>
+        <v>538.7050000148803</v>
       </c>
       <c r="F13" t="n">
-        <v>78.51106622469182</v>
+        <v>391.8150525169699</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469182</v>
+        <v>224.3713263242216</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469182</v>
+        <v>80.45786684223408</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469182</v>
+        <v>80.45786684223408</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600399</v>
+        <v>143.5350566283903</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457703</v>
+        <v>377.0270927076822</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888914</v>
+        <v>731.3429449977135</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.90854877922</v>
+        <v>1115.308455583785</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1495.578740955086</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715848</v>
+        <v>1830.803602510218</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.00213308252</v>
+        <v>2094.125701226119</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2193.001193167699</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014273</v>
+        <v>2193.001193167699</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370155</v>
+        <v>2193.001193167699</v>
       </c>
       <c r="T13" t="n">
-        <v>1667.488017920201</v>
+        <v>1972.341685948956</v>
       </c>
       <c r="U13" t="n">
-        <v>1378.397311360489</v>
+        <v>1683.25295237092</v>
       </c>
       <c r="V13" t="n">
-        <v>1123.712823154602</v>
+        <v>1428.568464165033</v>
       </c>
       <c r="W13" t="n">
-        <v>834.2956531176415</v>
+        <v>1260.198866328893</v>
       </c>
       <c r="X13" t="n">
-        <v>606.3061022196241</v>
+        <v>1260.198866328893</v>
       </c>
       <c r="Y13" t="n">
-        <v>385.513523076094</v>
+        <v>1039.406287185363</v>
       </c>
     </row>
     <row r="14">
@@ -5270,40 +5270,40 @@
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.937882512877</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070875</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T14" t="n">
         <v>4404.704271100993</v>
@@ -5343,34 +5343,34 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412852</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.700680385036</v>
+        <v>372.2013186925058</v>
       </c>
       <c r="M15" t="n">
-        <v>1653.719034637164</v>
+        <v>964.2196729446335</v>
       </c>
       <c r="N15" t="n">
-        <v>2275.8149980365</v>
+        <v>1586.31563634397</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P15" t="n">
         <v>2552.77562977024</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>704.9454985441409</v>
+        <v>951.4953365361202</v>
       </c>
       <c r="C16" t="n">
-        <v>704.9454985441409</v>
+        <v>782.5591536082134</v>
       </c>
       <c r="D16" t="n">
-        <v>554.8288591318052</v>
+        <v>632.4425141958776</v>
       </c>
       <c r="E16" t="n">
-        <v>406.9157655494121</v>
+        <v>484.5294206134845</v>
       </c>
       <c r="F16" t="n">
-        <v>260.0258180515017</v>
+        <v>484.5294206134845</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608053</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608053</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.52680186348</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>1736.450588178207</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="V16" t="n">
-        <v>1481.76609997232</v>
+        <v>1702.982968616095</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.348929935359</v>
+        <v>1413.565798579135</v>
       </c>
       <c r="X16" t="n">
-        <v>964.3593790373416</v>
+        <v>1185.576247681117</v>
       </c>
       <c r="Y16" t="n">
-        <v>743.5667998938114</v>
+        <v>964.7836685375872</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>92.81162322608088</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1383.80319137071</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348531</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876686</v>
+        <v>873.8816814720478</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597617</v>
+        <v>704.9454985441409</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474261</v>
+        <v>554.8288591318051</v>
       </c>
       <c r="E19" t="n">
-        <v>261.8464821474261</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>260.0258180515016</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235164</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2337.490148271955</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602303</v>
+        <v>2048.413934586682</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396416</v>
+        <v>1793.729446380795</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1504.312276343835</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614385</v>
+        <v>1276.322725445818</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179083</v>
+        <v>1055.530146302287</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>92.81162322608043</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K21" t="n">
-        <v>175.874420793908</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096665</v>
+        <v>731.1919378216777</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1323.210292073805</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1945.306255473141</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2492.182730473336</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876684</v>
+        <v>579.0786403917443</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597615</v>
+        <v>410.1424574638374</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597615</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="E22" t="n">
-        <v>264.0500279773685</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258105</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602303</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396416</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1192.348929935359</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614382</v>
+        <v>964.3593790373418</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179081</v>
+        <v>743.5667998938117</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,55 +6121,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>430.7826650753339</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>282.8695714929408</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>135.9796239950306</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6184,13 +6184,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>762.5477693179092</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6230,13 +6230,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400714</v>
+        <v>984.5467179762941</v>
       </c>
       <c r="C28" t="n">
-        <v>470.7064074803617</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6385,19 +6385,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947398</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138413</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703112</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,16 +6494,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.5007694647279</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6646,25 +6646,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949676</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6698,19 +6698,19 @@
         <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6731,16 +6731,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327675</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048606</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925248</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6862,46 +6862,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580263</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603204</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947402</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741515</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704555</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806537</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630072</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="35">
@@ -6941,13 +6941,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835329</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711972</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E37" t="n">
-        <v>549.614540988804</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400711</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121642</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121642</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121642</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121642</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270441</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,7 +7348,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>916.294644713841</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703108</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7403,43 +7403,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270438</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797742</v>
@@ -7585,7 +7585,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406468</v>
@@ -7637,28 +7637,28 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,19 +7725,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,13 +7822,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.58458098752737</v>
+        <v>34.48513033188098</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>21.32864171282106</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>72.09602790132243</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>158.8055419624029</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241554</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>114.3555089013359</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>6.224870972909741</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>19.53007201344965</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>96.1563689811188</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.4146274292354</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>248.6637144479643</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>22.3335105456184</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.7150774703404</v>
+        <v>88.63818461247365</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>77.39811087628539</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.2985930389547</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>119.8370964788127</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>50.29152613728907</v>
       </c>
       <c r="T14" t="n">
-        <v>50.29152613729095</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>141.5968918457632</v>
+        <v>166.6765315004849</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>50.2915261372904</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>144.5956654067402</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>127.5052245859316</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>50.29152613729104</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>16.98870227489098</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>142.4141550350976</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24212,7 +24212,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>136.2749052347522</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>123.7828069546807</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>124.5310997715153</v>
+        <v>112.97923786436</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>154.8900140445872</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462218</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>250.2980548978889</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,10 +25081,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>104.8770068749545</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25123,16 +25123,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>34.08691039030777</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>121.5862749664511</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>211.5151132204102</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194236</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,13 +25600,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>109.4223302771041</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25795,13 +25795,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>62.3554390986496</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219427</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.4949402405082</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>937427.1199982667</v>
+        <v>937431.833999241</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>837727.2968773402</v>
+        <v>847777.6599942845</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>911553.9586029574</v>
+        <v>911553.9586029577</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>916579.1401614295</v>
+        <v>911553.9586029574</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>916579.1401614294</v>
+        <v>911553.9586029574</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>916579.1401614294</v>
+        <v>916579.1401614295</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>916579.1401614294</v>
+        <v>916579.1401614295</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>916579.1401614296</v>
+        <v>916579.1401614295</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>916579.1401614294</v>
+        <v>916579.1401614296</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>916579.1401614294</v>
+        <v>916579.1401614295</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651774</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>460660.0452039822</v>
+        <v>466243.5802689509</v>
       </c>
       <c r="F2" t="n">
+        <v>501674.8572737695</v>
+      </c>
+      <c r="G2" t="n">
+        <v>501674.8572737694</v>
+      </c>
+      <c r="H2" t="n">
         <v>501674.8572737692</v>
-      </c>
-      <c r="G2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="H2" t="n">
-        <v>504466.6248062537</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062536</v>
@@ -26338,19 +26338,19 @@
         <v>504466.6248062537</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="M2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="N2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="N2" t="n">
-        <v>504466.6248062539</v>
-      </c>
       <c r="O2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062538</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132064.9098103567</v>
+        <v>132571.3256199696</v>
       </c>
       <c r="D3" t="n">
-        <v>266112.9182196334</v>
+        <v>265633.5342698646</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357062</v>
+        <v>348407.0423979651</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051381</v>
+        <v>143852.0300046386</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.2362355788</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>10818.91345744865</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
-        <v>30705.53736648431</v>
+        <v>30823.28075181945</v>
       </c>
       <c r="L3" t="n">
-        <v>65187.38037950779</v>
+        <v>65071.59368054813</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456818</v>
+        <v>90993.97560824318</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848914</v>
+        <v>37822.10612282957</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224638</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248543.2666865468</v>
+        <v>248543.2666865467</v>
       </c>
       <c r="C4" t="n">
-        <v>212746.1906637132</v>
+        <v>212608.9232755636</v>
       </c>
       <c r="D4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="E4" t="n">
-        <v>9238.079399450547</v>
+        <v>9250.67460413154</v>
       </c>
       <c r="F4" t="n">
         <v>9330.667735531239</v>
       </c>
       <c r="G4" t="n">
+        <v>9330.667735531239</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9330.667735531239</v>
+      </c>
+      <c r="I4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="I4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9337.200356756592</v>
-      </c>
       <c r="K4" t="n">
-        <v>9337.200356756581</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="O4" t="n">
+        <v>9337.200356756632</v>
+      </c>
+      <c r="P4" t="n">
         <v>9337.200356756588</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72540.50950589747</v>
+        <v>72576.9102163819</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214708</v>
+        <v>88006.19635167002</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-478527.9443168289</v>
+        <v>-478527.944316829</v>
       </c>
       <c r="C6" t="n">
-        <v>95799.49618520954</v>
+        <v>95393.94705326228</v>
       </c>
       <c r="D6" t="n">
-        <v>17374.14181359616</v>
+        <v>17853.52576336515</v>
       </c>
       <c r="E6" t="n">
-        <v>40141.12460667836</v>
+        <v>20392.03681159935</v>
       </c>
       <c r="F6" t="n">
-        <v>225680.7139192615</v>
+        <v>248304.1260241957</v>
       </c>
       <c r="G6" t="n">
-        <v>382839.6583900112</v>
+        <v>392156.1560288343</v>
       </c>
       <c r="H6" t="n">
-        <v>394006.8946255901</v>
+        <v>392156.1560288341</v>
       </c>
       <c r="I6" t="n">
-        <v>394006.8946255898</v>
+        <v>383153.2432427056</v>
       </c>
       <c r="J6" t="n">
-        <v>325007.7402064759</v>
+        <v>324973.0022810402</v>
       </c>
       <c r="K6" t="n">
-        <v>363301.3572591059</v>
+        <v>363148.8759483348</v>
       </c>
       <c r="L6" t="n">
-        <v>328819.5142460823</v>
+        <v>328900.5630196062</v>
       </c>
       <c r="M6" t="n">
-        <v>309077.3002810219</v>
+        <v>302978.181091911</v>
       </c>
       <c r="N6" t="n">
-        <v>350224.488067101</v>
+        <v>356150.0505773248</v>
       </c>
       <c r="O6" t="n">
-        <v>390983.5966483652</v>
+        <v>393972.1567001545</v>
       </c>
       <c r="P6" t="n">
-        <v>394006.8946255901</v>
+        <v>393972.1567001544</v>
       </c>
     </row>
   </sheetData>
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>716.7570176605245</v>
+        <v>717.1508385363654</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1232.028328053767</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.0198440937177</v>
+        <v>383.4773344784398</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086477</v>
+        <v>1005.723335527926</v>
       </c>
       <c r="F4" t="n">
+        <v>1160.145290326007</v>
+      </c>
+      <c r="G4" t="n">
         <v>1160.145290326006</v>
       </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>102.7020038910463</v>
+        <v>103.0958247668871</v>
       </c>
       <c r="D3" t="n">
-        <v>217.3078744570148</v>
+        <v>216.9140535811737</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770163</v>
+        <v>297.9634359362281</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218299</v>
+        <v>126.0127206626187</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,46 +27009,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.3059640922116</v>
+        <v>119.7634544769336</v>
       </c>
       <c r="D4" t="n">
-        <v>257.564988006321</v>
+        <v>257.1074976215991</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086089</v>
+        <v>365.1385034278871</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173588</v>
+        <v>154.4219547980809</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364165</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922116</v>
+        <v>119.7634544769336</v>
       </c>
       <c r="L4" t="n">
-        <v>257.564988006321</v>
+        <v>257.1074976215991</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086089</v>
+        <v>365.1385034278871</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173588</v>
+        <v>154.4219547980809</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922116</v>
+        <v>119.7634544769336</v>
       </c>
       <c r="L4" t="n">
-        <v>257.564988006321</v>
+        <v>257.1074976215991</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086089</v>
+        <v>365.1385034278871</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173588</v>
+        <v>154.4219547980809</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>399.7207504853181</v>
       </c>
       <c r="H2" t="n">
-        <v>241.5581860648752</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27461,22 +27461,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>53.39752063224293</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>35.75216312994306</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.198471776436577</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>111.2381780409245</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>77.14957394900011</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>78.98762213228753</v>
-      </c>
       <c r="H5" t="n">
-        <v>309.9653033936934</v>
+        <v>309.9490894518052</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3593638980475</v>
+        <v>143.3232867394215</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4823667709296</v>
+        <v>210.4754363151145</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1151380880864</v>
+        <v>251.1150114321263</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27707,10 +27707,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>36.0557768648132</v>
+        <v>135.8009663029626</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33765040199573</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.436963001677199</v>
+        <v>4.384369338296025</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27752,13 +27752,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>6.857319143294603</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>121.854883376295</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6984667036611</v>
+        <v>166.6977565348686</v>
       </c>
       <c r="H7" t="n">
-        <v>150.735559994784</v>
+        <v>150.7292459486106</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5810943629793</v>
+        <v>116.5597376505649</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1453906001062</v>
       </c>
       <c r="S7" t="n">
-        <v>179.4447452494843</v>
+        <v>201.4792511931327</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4200010002144</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>7.962393219074436</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>57.93569565301719</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>115.3258519193758</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>45.97334457806429</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28065,10 +28065,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-3.517724391195823e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29685,7 +29685,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29943,7 +29943,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>2.785327524179593e-12</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.881435246876478</v>
+        <v>2.883018446377346</v>
       </c>
       <c r="H5" t="n">
-        <v>29.50949872207374</v>
+        <v>29.525712663962</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0865323552055</v>
+        <v>111.1475686539628</v>
       </c>
       <c r="J5" t="n">
-        <v>244.5582147845827</v>
+        <v>244.6925868632195</v>
       </c>
       <c r="K5" t="n">
-        <v>366.5293687848641</v>
+        <v>366.7307576983727</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7120927214602</v>
+        <v>454.9619334766934</v>
       </c>
       <c r="M5" t="n">
-        <v>505.9548167930998</v>
+        <v>506.2328127724566</v>
       </c>
       <c r="N5" t="n">
-        <v>514.1416946882877</v>
+        <v>514.4241889332262</v>
       </c>
       <c r="O5" t="n">
-        <v>485.4894229521596</v>
+        <v>485.7561742570615</v>
       </c>
       <c r="P5" t="n">
-        <v>414.3539902948965</v>
+        <v>414.5816563621207</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.1625905161325</v>
+        <v>311.3335582512319</v>
       </c>
       <c r="R5" t="n">
-        <v>181.0009568266047</v>
+        <v>181.1004074822511</v>
       </c>
       <c r="S5" t="n">
-        <v>65.66070568819782</v>
+        <v>65.69678284682385</v>
       </c>
       <c r="T5" t="n">
-        <v>12.61348279320179</v>
+        <v>12.62041324901684</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2305148197501182</v>
+        <v>0.2306414757101876</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541703773835845</v>
+        <v>1.542550860248031</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88961276309882</v>
+        <v>14.89779383450073</v>
       </c>
       <c r="I6" t="n">
-        <v>53.08059045882187</v>
+        <v>53.10975549538179</v>
       </c>
       <c r="J6" t="n">
-        <v>145.6571973342015</v>
+        <v>145.7372284236967</v>
       </c>
       <c r="K6" t="n">
-        <v>248.9513501812031</v>
+        <v>249.0881360603148</v>
       </c>
       <c r="L6" t="n">
-        <v>334.7458128234365</v>
+        <v>334.9297383183281</v>
       </c>
       <c r="M6" t="n">
-        <v>390.6325746249858</v>
+        <v>390.8472070023191</v>
       </c>
       <c r="N6" t="n">
-        <v>400.9714565118061</v>
+        <v>401.1917695695088</v>
       </c>
       <c r="O6" t="n">
-        <v>366.8105465757592</v>
+        <v>367.0120899819077</v>
       </c>
       <c r="P6" t="n">
-        <v>294.3978022160747</v>
+        <v>294.5595585678894</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7971343584142</v>
+        <v>196.9052641958715</v>
       </c>
       <c r="R6" t="n">
-        <v>95.72087115096593</v>
+        <v>95.77346481434711</v>
       </c>
       <c r="S6" t="n">
-        <v>28.63647141313509</v>
+        <v>28.65220567171232</v>
       </c>
       <c r="T6" t="n">
-        <v>6.214148105943602</v>
+        <v>6.217562458631317</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1014278798576214</v>
+        <v>0.1014836092268442</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.292512654797667</v>
+        <v>1.293222823590167</v>
       </c>
       <c r="H7" t="n">
-        <v>11.49161251265563</v>
+        <v>11.49792655882895</v>
       </c>
       <c r="I7" t="n">
-        <v>38.86938056427894</v>
+        <v>38.8907372766934</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38064469419506</v>
+        <v>91.4308536278248</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1664702574016</v>
+        <v>150.2489789589303</v>
       </c>
       <c r="L7" t="n">
-        <v>192.1613814232823</v>
+        <v>192.2669641544872</v>
       </c>
       <c r="M7" t="n">
-        <v>202.6072336970561</v>
+        <v>202.7185558833204</v>
       </c>
       <c r="N7" t="n">
-        <v>197.789686529174</v>
+        <v>197.8983617226663</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6907886981285</v>
+        <v>182.7911678289084</v>
       </c>
       <c r="P7" t="n">
-        <v>156.3235305402559</v>
+        <v>156.4094222276689</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.2303096667392</v>
+        <v>108.2897766189912</v>
       </c>
       <c r="R7" t="n">
-        <v>58.11606900572054</v>
+        <v>58.14800077706332</v>
       </c>
       <c r="S7" t="n">
-        <v>22.52497053861024</v>
+        <v>22.53734684383954</v>
       </c>
       <c r="T7" t="n">
-        <v>5.522554070499122</v>
+        <v>5.525588428067076</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07050069026169101</v>
+        <v>0.07053942674128191</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.952877700718658</v>
       </c>
       <c r="H11" t="n">
-        <v>49.9060854350899</v>
+        <v>50.72365875248497</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>190.9458175569563</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307178</v>
+        <v>420.3693037513706</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726054</v>
+        <v>630.0246168227915</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216969</v>
+        <v>781.6012477561603</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857423</v>
+        <v>869.6819865663157</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898384</v>
+        <v>883.7543503334826</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294405</v>
+        <v>834.5041726969615</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615135</v>
+        <v>712.2300044604694</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895585</v>
+        <v>534.8550718034824</v>
       </c>
       <c r="R11" t="n">
-        <v>306.106494735698</v>
+        <v>311.1212038677687</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>112.8637006051265</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.68122213489594</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188517</v>
+        <v>0.3962302160574926</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.650023196191122</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.59364507900373</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596475</v>
+        <v>91.23983372851013</v>
       </c>
       <c r="J12" t="n">
-        <v>246.333582378304</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202553</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>141.5392044735509</v>
+        <v>575.3920979273749</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845327</v>
+        <v>671.455438789303</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147138</v>
+        <v>689.2268662760409</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431807</v>
+        <v>630.5079312446481</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205469</v>
+        <v>426.2070303333546</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071845</v>
+        <v>338.2731364120457</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697585</v>
+        <v>49.22301857837454</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.68145314605105</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1743436313283634</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.22169042763794</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.75284762027189</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691788</v>
+        <v>66.81229031478463</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>157.0735132340024</v>
       </c>
       <c r="K13" t="n">
-        <v>253.959606861974</v>
+        <v>258.120033320117</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509174</v>
+        <v>330.3047750326444</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263708</v>
+        <v>348.2600731251</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973093</v>
+        <v>339.9792269857226</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050058</v>
+        <v>314.0258433537701</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761895</v>
+        <v>268.7033586299559</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>186.0362775361188</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570608</v>
+        <v>99.8952805008841</v>
       </c>
       <c r="S13" t="n">
-        <v>38.0939410292961</v>
+        <v>38.71800499801755</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826901</v>
+        <v>9.492677281725744</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1211831142347969</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,31 +32069,31 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745724</v>
+        <v>420.7661933823239</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>422.3544583169088</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>467.4901056247181</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558023</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>220.7280629601531</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>195.1793561990821</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>338.1920576279222</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>688.8020111197787</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,7 +34208,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,7 +34445,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34793,10 +34793,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250133</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.51231025789644</v>
+        <v>63.64668233653322</v>
       </c>
       <c r="K5" t="n">
-        <v>146.4395177398836</v>
+        <v>146.6409066533921</v>
       </c>
       <c r="L5" t="n">
-        <v>218.945677751473</v>
+        <v>219.1955185067062</v>
       </c>
       <c r="M5" t="n">
-        <v>275.6085835658271</v>
+        <v>275.8865795451838</v>
       </c>
       <c r="N5" t="n">
-        <v>284.7286310916967</v>
+        <v>285.0111253366353</v>
       </c>
       <c r="O5" t="n">
-        <v>255.3912115304729</v>
+        <v>255.6579628353748</v>
       </c>
       <c r="P5" t="n">
-        <v>183.120994539627</v>
+        <v>183.3486606068511</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.85690064168304</v>
+        <v>89.02786837678238</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.81957066753483</v>
+        <v>40.22824346985107</v>
       </c>
       <c r="K6" t="n">
-        <v>111.1099112068441</v>
+        <v>111.2466970859558</v>
       </c>
       <c r="L6" t="n">
-        <v>268.2874609448847</v>
+        <v>196.3753585384539</v>
       </c>
       <c r="M6" t="n">
-        <v>248.4985407029675</v>
+        <v>248.7131730803008</v>
       </c>
       <c r="N6" t="n">
-        <v>269.6297444284728</v>
+        <v>269.8500574861755</v>
       </c>
       <c r="O6" t="n">
-        <v>383.0198440937177</v>
+        <v>224.4158455374633</v>
       </c>
       <c r="P6" t="n">
-        <v>160.4233948017445</v>
+        <v>160.5851511535592</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.81536027239272</v>
+        <v>267.0007778456991</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.8969784315188</v>
+        <v>127.9794871330474</v>
       </c>
       <c r="L7" t="n">
-        <v>219.7514066835984</v>
+        <v>219.8569894148034</v>
       </c>
       <c r="M7" t="n">
-        <v>242.1911106588967</v>
+        <v>242.302432845161</v>
       </c>
       <c r="N7" t="n">
-        <v>241.9218589084026</v>
+        <v>242.0305341018949</v>
       </c>
       <c r="O7" t="n">
-        <v>207.2759166121682</v>
+        <v>207.3762957429481</v>
       </c>
       <c r="P7" t="n">
-        <v>153.6020898051494</v>
+        <v>153.6879814925624</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.06826641504482</v>
+        <v>22.12773336729678</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676403</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>230.8362312321904</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040315</v>
+        <v>239.3233992246843</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276249</v>
+        <v>409.9347657778109</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517096</v>
+        <v>545.8348327861731</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584696</v>
+        <v>639.335753339043</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932476</v>
+        <v>654.3412867368918</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077537</v>
+        <v>604.4059612752748</v>
       </c>
       <c r="P11" t="n">
-        <v>469.517153706244</v>
+        <v>480.9970087051999</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.928488915109</v>
+        <v>312.5493819290328</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156593</v>
+        <v>95.53566605363659</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116374</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458963</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2.984824693676687</v>
+        <v>436.8377181475008</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625144</v>
+        <v>529.3214048672846</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313805</v>
+        <v>557.8851541927077</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987363</v>
+        <v>487.9116868002037</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062166</v>
+        <v>292.2326229190243</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.839013321163</v>
+        <v>198.2913623260242</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701833</v>
+        <v>63.7143331173296</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>235.8505414942342</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112335</v>
+        <v>357.8948002929606</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>387.8439500869406</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>384.1113993649511</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190455</v>
+        <v>338.6109712678098</v>
       </c>
       <c r="P13" t="n">
-        <v>261.650907441083</v>
+        <v>265.9819178948494</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998352</v>
+        <v>99.87423428442445</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946982</v>
+        <v>282.2118136024497</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>279.7582138724644</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>325.3560717026998</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113578</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>82.88662398579406</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>61.20494878475183</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>196.0580237059039</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060482</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>546.2057666753343</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010448</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
